--- a/24时序分析.xlsx
+++ b/24时序分析.xlsx
@@ -41,106 +41,106 @@
     <t>向PE写出数据流</t>
   </si>
   <si>
+    <t>接收第1组数据b(i+m,j+n)和a(i,j)</t>
+  </si>
+  <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x1）；脉动更新第1行数据；写入第16行数据</t>
   </si>
   <si>
-    <t>接收第1组数据b(i+m,j+n)和a(i,j)</t>
+    <t>接收第2组数据b(i+m,j+n)和a(i,j),PE组输出第1个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x2）；脉动更新第2行数据</t>
   </si>
   <si>
-    <t>接收第2组数据b(i+m,j+n)和a(i,j),PE组输出第1个sum值</t>
+    <t>接收第3组数据b(i+m,j+n)和a(i,j),PE组输出第2个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x3）；脉动更新第3行数据</t>
   </si>
   <si>
-    <t>接收第3组数据b(i+m,j+n)和a(i,j),PE组输出第2个sum值</t>
+    <t>接收第4组数据b(i+m,j+n)和a(i,j),PE组输出第3个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x4）；脉动更新第4行数据</t>
   </si>
   <si>
-    <t>接收第4组数据b(i+m,j+n)和a(i,j),PE组输出第3个sum值</t>
+    <t>接收第5组数据b(i+m,j+n)和a(i,j),PE组输出第4个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x5）；脉动更新第5行数据</t>
   </si>
   <si>
-    <t>接收第5组数据b(i+m,j+n)和a(i,j),PE组输出第4个sum值</t>
+    <t>接收第6组数据b(i+m,j+n)和a(i,j),PE组输出第5个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x6）；脉动更新第6行数据；写入第17行数据</t>
   </si>
   <si>
-    <t>接收第6组数据b(i+m,j+n)和a(i,j),PE组输出第5个sum值</t>
+    <t>接收第7组数据b(i+m,j+n)和a(i,j),PE组输出第6个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x7）；脉动更新第7行数据</t>
   </si>
   <si>
-    <t>接收第7组数据b(i+m,j+n)和a(i,j),PE组输出第6个sum值</t>
+    <t>接收第8组数据b(i+m,j+n)和a(i,j),PE组输出第7个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x8）；脉动更新第8行数据</t>
   </si>
   <si>
-    <t>接收第8组数据b(i+m,j+n)和a(i,j),PE组输出第7个sum值</t>
+    <t>接收第9组数据b(i+m,j+n)和a(i,j),PE组输出第8个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x9）；脉动更新第9行数据</t>
   </si>
   <si>
-    <t>接收第9组数据b(i+m,j+n)和a(i,j),PE组输出第8个sum值</t>
+    <t>接收第10组数据b(i+m,j+n)和a(i,j),PE组输出第9个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xa）；脉动更新第10行数据</t>
   </si>
   <si>
-    <t>接收第10组数据b(i+m,j+n)和a(i,j),PE组输出第9个sum值</t>
+    <t>接收第11组数据b(i+m,j+n)和a(i,j),PE组输出第10个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xb）；脉动更新第11行数据；写入第18行数据</t>
   </si>
   <si>
-    <t>接收第11组数据b(i+m,j+n)和a(i,j),PE组输出第10个sum值</t>
+    <t>接收第12组数据b(i+m,j+n)和a(i,j),PE组输出第11个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xc）；脉动更新第12行数据</t>
   </si>
   <si>
-    <t>接收第12组数据b(i+m,j+n)和a(i,j),PE组输出第11个sum值</t>
+    <t>接收第13组数据b(i+m,j+n)和a(i,j),PE组输出第12个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xd）；脉动更新第13行数据</t>
   </si>
   <si>
-    <t>接收第13组数据b(i+m,j+n)和a(i,j),PE组输出第12个sum值</t>
+    <t>接收第14组数据b(i+m,j+n)和a(i,j),PE组输出第13个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xe）；脉动更新第14行数据</t>
   </si>
   <si>
-    <t>接收第14组数据b(i+m,j+n)和a(i,j),PE组输出第13个sum值</t>
+    <t>接收第15组数据b(i+m,j+n)和a(i,j),PE组输出第14个sum值</t>
   </si>
   <si>
     <t>写入第19行数据；向PE写出数据流（ctr_word=0xf）；脉动更新第15行数据</t>
   </si>
   <si>
-    <t>接收第15组数据b(i+m,j+n)和a(i,j),PE组输出第14个sum值</t>
+    <t>接收第16组数据b(i+m,j+n)和a(i,j),PE组输出第15个sum值</t>
   </si>
   <si>
     <t>接收16个sum值</t>
   </si>
   <si>
-    <t>接收第16组数据b(i+m,j+n)和a(i,j),PE组输出第15个sum值</t>
+    <t>PE组（16个PE）输出第16个sum值</t>
   </si>
   <si>
     <t>比较出最小sum值，即mad值</t>
-  </si>
-  <si>
-    <t>PE组（16个PE）输出第16个sum值</t>
   </si>
   <si>
     <t>initial</t>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,27 +169,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -199,7 +184,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +229,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,14 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +290,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -290,13 +297,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -304,9 +305,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +333,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +429,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,139 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,37 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +581,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,185 +639,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1146,7 +1147,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1270,7 +1271,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="3">
@@ -1284,14 +1285,16 @@
         <v>7</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -1299,7 +1302,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
@@ -1307,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -1315,7 +1318,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
@@ -1323,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -1331,7 +1334,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
@@ -1339,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
@@ -1347,7 +1350,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:6">
@@ -1355,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -1363,7 +1366,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:6">
@@ -1371,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -1379,7 +1382,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:6">
@@ -1387,7 +1390,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
@@ -1395,7 +1398,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:6">
@@ -1403,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -1411,7 +1414,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:6">
@@ -1419,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -1427,7 +1430,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:6">
@@ -1435,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -1443,7 +1446,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:6">
@@ -1451,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1459,7 +1462,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:6">
@@ -1467,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
@@ -1475,7 +1478,7 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:6">
@@ -1483,7 +1486,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -1491,7 +1494,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:6">
@@ -1499,7 +1502,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -1507,7 +1510,7 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:6">
@@ -1515,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
@@ -1523,7 +1526,7 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:6">
@@ -1534,10 +1537,10 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:6">
@@ -1548,11 +1551,9 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:6">
       <c r="A28" s="6">

--- a/24时序分析.xlsx
+++ b/24时序分析.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
-  <si>
-    <t>mem19198</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+  <si>
+    <t>mem19198(mod)</t>
+  </si>
+  <si>
+    <t>pe_en</t>
   </si>
   <si>
     <t>mem20</t>
   </si>
   <si>
-    <t>mem448</t>
+    <t>mem448(mod)</t>
   </si>
   <si>
     <t>compare</t>
@@ -32,103 +35,112 @@
     <t>pe</t>
   </si>
   <si>
+    <t>0 init</t>
+  </si>
+  <si>
     <t>写入4*8bit数据</t>
   </si>
   <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x0）</t>
+    <t>1 init</t>
+  </si>
+  <si>
+    <t>向PE写出数据流（ctr_word=0xf）；脉动更新第15行数据</t>
+  </si>
+  <si>
+    <t>写入4*8bit数据;向PE写出数据流</t>
+  </si>
+  <si>
+    <t>接收第1组数据b(i+m,j+n)和a(i,j)</t>
+  </si>
+  <si>
+    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x0）；写入第16行数据</t>
   </si>
   <si>
     <t>向PE写出数据流</t>
   </si>
   <si>
-    <t>接收第1组数据b(i+m,j+n)和a(i,j)</t>
-  </si>
-  <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x1）；脉动更新第1行数据；写入第16行数据</t>
-  </si>
-  <si>
     <t>接收第2组数据b(i+m,j+n)和a(i,j),PE组输出第1个sum值</t>
   </si>
   <si>
+    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x1）；脉动更新第1行数据</t>
+  </si>
+  <si>
+    <t>接收第3组数据b(i+m,j+n)和a(i,j),PE组输出第2个sum值</t>
+  </si>
+  <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x2）；脉动更新第2行数据</t>
   </si>
   <si>
-    <t>接收第3组数据b(i+m,j+n)和a(i,j),PE组输出第2个sum值</t>
+    <t>接收第4组数据b(i+m,j+n)和a(i,j),PE组输出第3个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x3）；脉动更新第3行数据</t>
   </si>
   <si>
-    <t>接收第4组数据b(i+m,j+n)和a(i,j),PE组输出第3个sum值</t>
+    <t>接收第5组数据b(i+m,j+n)和a(i,j),PE组输出第4个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x4）；脉动更新第4行数据</t>
   </si>
   <si>
-    <t>接收第5组数据b(i+m,j+n)和a(i,j),PE组输出第4个sum值</t>
-  </si>
-  <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x5）；脉动更新第5行数据</t>
-  </si>
-  <si>
     <t>接收第6组数据b(i+m,j+n)和a(i,j),PE组输出第5个sum值</t>
   </si>
   <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x6）；脉动更新第6行数据；写入第17行数据</t>
+    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x5）；脉动更新第5行数据；写入第17行数据</t>
   </si>
   <si>
     <t>接收第7组数据b(i+m,j+n)和a(i,j),PE组输出第6个sum值</t>
   </si>
   <si>
+    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x6）；脉动更新第6行数据</t>
+  </si>
+  <si>
+    <t>接收第8组数据b(i+m,j+n)和a(i,j),PE组输出第7个sum值</t>
+  </si>
+  <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x7）；脉动更新第7行数据</t>
   </si>
   <si>
-    <t>接收第8组数据b(i+m,j+n)和a(i,j),PE组输出第7个sum值</t>
+    <t>接收第9组数据b(i+m,j+n)和a(i,j),PE组输出第8个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x8）；脉动更新第8行数据</t>
   </si>
   <si>
-    <t>接收第9组数据b(i+m,j+n)和a(i,j),PE组输出第8个sum值</t>
+    <t>接收第10组数据b(i+m,j+n)和a(i,j),PE组输出第9个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0x9）；脉动更新第9行数据</t>
   </si>
   <si>
-    <t>接收第10组数据b(i+m,j+n)和a(i,j),PE组输出第9个sum值</t>
-  </si>
-  <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xa）；脉动更新第10行数据</t>
-  </si>
-  <si>
     <t>接收第11组数据b(i+m,j+n)和a(i,j),PE组输出第10个sum值</t>
   </si>
   <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xb）；脉动更新第11行数据；写入第18行数据</t>
+    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xa）；脉动更新第10行数据；写入第18行数据</t>
   </si>
   <si>
     <t>接收第12组数据b(i+m,j+n)和a(i,j),PE组输出第11个sum值</t>
   </si>
   <si>
+    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xb）；脉动更新第11行数据</t>
+  </si>
+  <si>
+    <t>接收第13组数据b(i+m,j+n)和a(i,j),PE组输出第12个sum值</t>
+  </si>
+  <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xc）；脉动更新第12行数据</t>
   </si>
   <si>
-    <t>接收第13组数据b(i+m,j+n)和a(i,j),PE组输出第12个sum值</t>
+    <t>接收第14组数据b(i+m,j+n)和a(i,j),PE组输出第13个sum值</t>
   </si>
   <si>
     <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xd）；脉动更新第13行数据</t>
   </si>
   <si>
-    <t>接收第14组数据b(i+m,j+n)和a(i,j),PE组输出第13个sum值</t>
-  </si>
-  <si>
-    <t>写入4*8bit数据；向PE写出数据流（ctr_word=0xe）；脉动更新第14行数据</t>
-  </si>
-  <si>
     <t>接收第15组数据b(i+m,j+n)和a(i,j),PE组输出第14个sum值</t>
   </si>
   <si>
-    <t>写入第19行数据；向PE写出数据流（ctr_word=0xf）；脉动更新第15行数据</t>
+    <t>向PE写出数据流（ctr_word=0xe）；脉动更新第14行数据；写入第19行数据</t>
   </si>
   <si>
     <t>接收第16组数据b(i+m,j+n)和a(i,j),PE组输出第15个sum值</t>
@@ -154,12 +166,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,20 +183,18 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -205,11 +223,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,7 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +315,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -274,30 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -312,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,43 +352,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,78 +538,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,30 +550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -542,18 +585,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -577,6 +627,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,13 +681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,31 +704,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,145 +722,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1144,636 +1220,780 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="82.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="6.18181818181818" customWidth="1"/>
-    <col min="4" max="4" width="17.1363636363636" customWidth="1"/>
-    <col min="5" max="5" width="26.2272727272727" customWidth="1"/>
-    <col min="6" max="6" width="54.0181818181818" customWidth="1"/>
+    <col min="3" max="3" width="5.84545454545455" customWidth="1"/>
+    <col min="4" max="4" width="6.18181818181818" customWidth="1"/>
+    <col min="5" max="5" width="31.3" customWidth="1"/>
+    <col min="6" max="6" width="30.9" customWidth="1"/>
+    <col min="7" max="7" width="82.7181818181818" customWidth="1"/>
+    <col min="8" max="8" width="82.3272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:7">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="3">
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:7">
+      <c r="A4" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:7">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:7">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:7">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:7">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:7">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="3">
+      <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:7">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:7">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:8">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:8">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:8">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="1:8">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="1:8">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="1:8">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:8">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:8">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:8">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:8">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:8">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:8">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:8">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="1:8">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="1:8">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:8">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" s="7" customFormat="1" spans="1:8">
+      <c r="A28" s="16">
+        <v>24</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" s="7" customFormat="1" spans="1:7">
+      <c r="A29" s="16">
+        <v>0</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="1:7">
+      <c r="A30" s="16">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="1:7">
+      <c r="A31" s="16">
+        <v>2</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="1:7">
+      <c r="A32" s="16">
+        <v>3</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:7">
+      <c r="A33" s="16">
+        <v>4</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" s="7" customFormat="1" spans="1:7">
+      <c r="A34" s="16">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" s="7" customFormat="1" spans="1:7">
+      <c r="A35" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" s="7" customFormat="1" spans="1:7">
+      <c r="A36" s="16">
+        <v>7</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" s="7" customFormat="1" spans="1:7">
+      <c r="A37" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" s="7" customFormat="1" spans="1:7">
+      <c r="A38" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="1:7">
+      <c r="A39" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" s="7" customFormat="1" spans="1:7">
+      <c r="A40" s="16">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="1:7">
+      <c r="A41" s="16">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="1:7">
+      <c r="A42" s="16">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:7">
+      <c r="A43" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:6">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" s="7" customFormat="1" spans="1:7">
+      <c r="A44" s="16">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" s="7" customFormat="1" spans="1:7">
+      <c r="A45" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:7">
+      <c r="A46" s="16">
         <v>17</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:7">
+      <c r="A47" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="1:7">
+      <c r="A48" s="16">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:7">
+      <c r="A49" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:6">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="1:7">
+      <c r="A50" s="16">
         <v>21</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="1:7">
+      <c r="A51" s="16">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:6">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:6">
-      <c r="A26" s="6">
-        <v>0</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:6">
-      <c r="A27" s="6">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:6">
-      <c r="A28" s="6">
-        <v>2</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:6">
-      <c r="A29" s="6">
-        <v>3</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:6">
-      <c r="A30" s="6">
-        <v>4</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:6">
-      <c r="A31" s="6">
-        <v>5</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" s="4" customFormat="1" spans="1:6">
-      <c r="A32" s="6">
-        <v>6</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="1:6">
-      <c r="A33" s="6">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" s="4" customFormat="1" spans="1:6">
-      <c r="A34" s="6">
-        <v>8</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" s="4" customFormat="1" spans="1:6">
-      <c r="A35" s="6">
-        <v>9</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" s="4" customFormat="1" spans="1:6">
-      <c r="A36" s="6">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="1:6">
-      <c r="A37" s="6">
-        <v>11</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" s="4" customFormat="1" spans="1:6">
-      <c r="A38" s="6">
-        <v>12</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:6">
-      <c r="A39" s="6">
-        <v>13</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:6">
-      <c r="A40" s="6">
-        <v>14</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:6">
-      <c r="A41" s="6">
-        <v>15</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:6">
-      <c r="A42" s="6">
-        <v>16</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:6">
-      <c r="A43" s="6">
-        <v>17</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="1:6">
-      <c r="A44" s="6">
-        <v>18</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" s="4" customFormat="1" spans="1:6">
-      <c r="A45" s="6">
-        <v>19</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" s="4" customFormat="1" spans="1:6">
-      <c r="A46" s="6">
-        <v>20</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" s="4" customFormat="1" spans="1:6">
-      <c r="A47" s="6">
-        <v>21</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" s="4" customFormat="1" spans="1:6">
-      <c r="A48" s="6">
-        <v>22</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" s="4" customFormat="1" spans="1:6">
-      <c r="A49" s="6">
-        <v>23</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,7 +2018,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1812,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1825,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1838,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1851,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1864,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1877,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1890,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1903,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1916,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1929,7 +2149,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1942,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1955,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1968,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1981,7 +2201,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1994,7 +2214,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2007,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2020,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2033,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2046,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2059,7 +2279,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2072,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -2085,7 +2305,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2098,7 +2318,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2111,7 +2331,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2124,7 +2344,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2137,7 +2357,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2150,7 +2370,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2163,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2176,7 +2396,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2189,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2202,7 +2422,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2215,7 +2435,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2228,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2241,7 +2461,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2254,7 +2474,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2267,7 +2487,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2280,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2293,7 +2513,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2306,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2319,7 +2539,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2332,7 +2552,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2345,7 +2565,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2358,7 +2578,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2371,7 +2591,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2384,7 +2604,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2397,7 +2617,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2410,7 +2630,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2423,7 +2643,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2436,7 +2656,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2449,7 +2669,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2462,7 +2682,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2475,7 +2695,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2488,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2501,7 +2721,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2514,7 +2734,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2527,7 +2747,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2540,7 +2760,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2553,7 +2773,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2566,7 +2786,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2579,7 +2799,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2592,7 +2812,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2605,7 +2825,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2618,7 +2838,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2631,7 +2851,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2644,7 +2864,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2657,7 +2877,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2670,7 +2890,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2683,7 +2903,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2696,7 +2916,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2709,7 +2929,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2722,7 +2942,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2735,7 +2955,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>

--- a/24时序分析.xlsx
+++ b/24时序分析.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="全速运行" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>mem19198(mod)</t>
   </si>
@@ -4218,6 +4218,68 @@
       </rPr>
       <t>数据</t>
     </r>
+  </si>
+  <si>
+    <t>ctr_word</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>line0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>line1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>line3</t>
+  </si>
+  <si>
+    <t>init_mod=1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>写入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4*8bit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mem20 input=1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>读入数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4746,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4792,7 +4854,9 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
@@ -4907,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4928,7 +4992,9 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5614,146 +5680,403 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>-7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>8</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
